--- a/documents/Project Workplan.xlsx
+++ b/documents/Project Workplan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMREHAN\Desktop\Skinalyzer (Bitirme Projesi)\ceng-407-408-2024-2025-Skinalyzer\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD2505B-4794-4303-8F69-31184501C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22056" windowHeight="9288"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">start date  30/092024 </t>
   </si>
@@ -103,16 +109,13 @@
   </si>
   <si>
     <t>Compleded</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,11 +262,11 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Özet Tablo Stili 1" table="0" count="0"/>
+    <tableStyle name="Özet Tablo Stili 1" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -271,38 +274,44 @@
       <color rgb="FFFF9966"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:N1048576" totalsRowShown="0">
-  <autoFilter ref="A1:N1048576">
-    <filterColumn colId="13"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="A1:N1048576" totalsRowShown="0">
+  <autoFilter ref="A1:N1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="start date  30/092024 " dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Sütun1" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Sütun2"/>
-    <tableColumn id="4" name="Sütun3"/>
-    <tableColumn id="5" name="Sütun4"/>
-    <tableColumn id="6" name="Sütun5"/>
-    <tableColumn id="7" name="Sütun6"/>
-    <tableColumn id="8" name="Sütun7"/>
-    <tableColumn id="9" name="Sütun8"/>
-    <tableColumn id="10" name="Sütun9"/>
-    <tableColumn id="11" name="Sütun10"/>
-    <tableColumn id="12" name="Sütun11"/>
-    <tableColumn id="13" name="Sütun12"/>
-    <tableColumn id="14" name="Sütun13" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="start date  30/092024 " dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sütun1" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sütun2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sütun3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sütun4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sütun5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sütun6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sütun7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sütun8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sütun9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sütun10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sütun11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sütun12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sütun13" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,9 +349,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +383,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,9 +435,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,14 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
@@ -599,7 +644,7 @@
     <col min="8" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -690,7 +735,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,7 +744,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,7 +753,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -717,7 +762,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,49 +772,49 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -780,7 +825,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -800,24 +845,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
